--- a/Dataset/Folds/Fold_3/Excel/61.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/61.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="491">
   <si>
     <t>Doi</t>
   </si>
@@ -1439,6 +1439,189 @@
   </si>
   <si>
     <t>[Kenneth I.%Zheng%NULL%0,                           Xiao-Bo%Wang%NULL%1,                           Xiang-Hong%Jin%NULL%1,                           Wen-Yue%Liu%NULL%1,                           Feng%Gao%NULL%1,                           Yong-Ping%Chen%NULL%1,                           Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                            Xuejiao%Liao%NULL%1,                            Tongyang%Xiao%NULL%1,                            Shen%Qian%NULL%1,                            Jing%Yuan%NULL%1,                            Haocheng%Ye%NULL%1,                            Furong%Qi%NULL%1,                            Chengguang%Shen%NULL%1,                            Lifei%Wang%NULL%1,                            Yang%Liu%NULL%1,                            Xiaoya%Cheng%NULL%1,                            Na%Li%NULL%1,                            Qingxian%Cai%NULL%1,                            Fang%Wang%NULL%1,                            Jun%Chen%NULL%0,                            Guojun%Li%NULL%1,                            Qiu’e%Cai%NULL%1,                            Yingxia%Liu%NULL%1,                            Yunfang%Wang%NULL%1,                            Feng%Zhang%NULL%1,                            Yang%Fu%NULL%1,                            Qing%He%NULL%1,                            Xiaohua%Tan%NULL%1,                            Lei%Liu%NULL%0,                            Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                            Xiaoping%Xu%NULL%1,                            Jing%Hu%NULL%1,                            Qiangda%Chen%NULL%1,                            Fengfeng%Xu%NULL%1,                            Hui%Liang%NULL%1,                            Nanmei%Liu%NULL%1,                            Hengmei%Zhu%NULL%1,                            Jinlong%Lan%NULL%1,                            Lan%Zhou%NULL%1,                            Jiajun%Xing%NULL%1,                            Ning%Pu%NULL%1,                            Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                            Tim%Wood%NULL%1,                            Lauren%Jelley%NULL%1,                            Tineke%Jennings%NULL%1,                            Sarah%Jefferies%NULL%1,                            Karen%Daniells%NULL%1,                            Annette%Nesdale%NULL%1,                            Tony%Dowell%NULL%1,                            Nikki%Turner%NULL%1,                            Priscilla%Campbell-Stokes%NULL%1,                            Michelle%Balm%NULL%1,                            Hazel C%Dobinson%NULL%1,                            Cameron C.%Grant%NULL%1,                            Shelley%James%NULL%1,                            Nayyereh%Aminisani%NULL%1,                            Jacqui%Ralston%NULL%1,                            Wendy%Gunn%NULL%1,                            Judy%Bocacao%NULL%1,                            Jessica%Danielewicz%NULL%1,                            Tessa%Moncrieff%NULL%1,                            Andrea%McNeill%NULL%1,                            Liza%Lopez%NULL%1,                            Ben%Waite%NULL%1,                            Tomasz%Kiedrzynski%NULL%1,                            Hannah%Schrader%NULL%1,                            Rebekah%Gray%NULL%1,                            Kayla%Cook%NULL%1,                            Danielle%Currin%NULL%1,                            Chaune%Engelbrecht%NULL%1,                            Whitney%Tapurau%NULL%1,                            Leigh%Emmerton%NULL%1,                            Maxine%Martin%NULL%1,                            Michael G.%Baker%NULL%1,                            Susan%Taylor%NULL%1,                            Adrian%Trenholme%NULL%1,                            Conroy%Wong%NULL%1,                            Shirley%Lawrence%NULL%1,                            Colin%McArthur%NULL%1,                            Alicia%Stanley%NULL%1,                            Sally%Roberts%NULL%1,                            Fahimeh%Ranama%NULL%1,                            Jenny%Bennett%NULL%1,                            Chris%Mansell%NULL%1,                            Meik%Dilcher%NULL%1,                            Anja%Werno%NULL%1,                            Jennifer%Grant%NULL%1,                            Antje%van der Linden%NULL%1,                            Ben%Youngblood%NULL%1,                            Paul G.%Thomas%NULL%1,                            Richard J.%Webby%NULL%1,                             S.%Huang%null%1,                             T.% Wood%null%1,                             L.% Jelley%null%1,                             T.% Jennings%null%1,                             S.% Jeffries%null%1,                             K.% Daniels%null%1,                             A.% Nesdale%null%1,                             T.% Dowell%null%1,                             N.% Turner%null%1,                             P.% Campbell-Stokes%null%1,                             M.% Balm%null%1,                             H. C.% Dobinson%null%1,                             C. C.% Grant%null%1,                             S.% James%null%1,                             N.% Aminisani%null%1,                             J.% Ralston%null%1,                             W.% Gunn%null%1,                             J.% Bucacao%null%1,                             J.% Danielewicz%null%1,                             T.% Moncrieff%null%1,                             A.% McNeill%null%1,                             L.% Lopez%null%1,                             B.% Waite%null%1,                             T.% Kiedrzynski%null%1,                             H.% Schrader%null%1,                             R.% Gray%null%1,                             K.% Cook%null%1,                             D.% Currin%null%1,                             C.% Engelbrecht%null%1,                             W.% Tapurau%null%1,                             L.% Emmerton%null%1,                             M.% Martin%null%1,                             M. G.% Baker%null%1,                             S.% Taylor%null%1,                             A.% Trenholme%null%1,                             C.% Wong%null%1,                             S.% Lawrence%null%1,                             C.% McArthur%null%1,                             A.% Stanley%null%1,                             S.% Roberts%null%1,                             F.% Ranama%null%1,                             J.% Bennett%null%1,                             C.% Mansell%null%1,                             M.% Dilcher%null%1,                             A.% Werno%null%1,                             J.% Grant%null%1,                            couldn't find firstname% v %null%1,                           S.%Huang%null%1,                           T.% Wood%null%1,                           L.% Jelley%null%1,                           T.% Jennings%null%1,                           S.% Jeffries%null%1,                           K.% Daniels%null%1,                           A.% Nesdale%null%1,                           T.% Dowell%null%1,                           N.% Turner%null%1,                           P.% Campbell-Stokes%null%1,                           M.% Balm%null%1,                           H. C.% Dobinson%null%1,                           C. C.% Grant%null%1,                           S.% James%null%1,                           N.% Aminisani%null%1,                           J.% Ralston%null%1,                           W.% Gunn%null%1,                           J.% Bucacao%null%1,                           J.% Danielewicz%null%1,                           T.% Moncrieff%null%1,                           A.% McNeill%null%1,                           L.% Lopez%null%1,                           B.% Waite%null%1,                           T.% Kiedrzynski%null%1,                           H.% Schrader%null%1,                           R.% Gray%null%1,                           K.% Cook%null%1,                           D.% Currin%null%1,                           C.% Engelbrecht%null%1,                           W.% Tapurau%null%1,                           L.% Emmerton%null%1,                           M.% Martin%null%1,                           M. G.% Baker%null%1,                           S.% Taylor%null%1,                           A.% Trenholme%null%1,                           C.% Wong%null%1,                           S.% Lawrence%null%1,                           C.% McArthur%null%1,                           A.% Stanley%null%1,                           S.% Roberts%null%1,                           F.% Ranama%null%1,                           J.% Bennett%null%1,                           C.% Mansell%null%1,                           M.% Dilcher%null%1,                           A.% Werno%null%1,                           J.% Grant%null%1,                          couldn't find firstname% v %null%1,          S.%Huang%null%1,          T.% Wood%null%1,          L.% Jelley%null%1,          T.% Jennings%null%1,          S.% Jeffries%null%1,          K.% Daniels%null%1,          A.% Nesdale%null%1,          T.% Dowell%null%1,          N.% Turner%null%1,          P.% Campbell-Stokes%null%1,          M.% Balm%null%1,          H. C.% Dobinson%null%1,          C. C.% Grant%null%1,          S.% James%null%1,          N.% Aminisani%null%1,          J.% Ralston%null%1,          W.% Gunn%null%1,          J.% Bucacao%null%1,          J.% Danielewicz%null%1,          T.% Moncrieff%null%1,          A.% McNeill%null%1,          L.% Lopez%null%1,          B.% Waite%null%1,          T.% Kiedrzynski%null%1,          H.% Schrader%null%1,          R.% Gray%null%1,          K.% Cook%null%1,          D.% Currin%null%1,          C.% Engelbrecht%null%1,          W.% Tapurau%null%1,          L.% Emmerton%null%1,          M.% Martin%null%1,          M. G.% Baker%null%1,          S.% Taylor%null%1,          A.% Trenholme%null%1,          C.% Wong%null%1,          S.% Lawrence%null%1,          C.% McArthur%null%1,          A.% Stanley%null%1,          S.% Roberts%null%1,          F.% Ranama%null%1,          J.% Bennett%null%1,          C.% Mansell%null%1,          M.% Dilcher%null%1,          A.% Werno%null%1,          J.% Grant%null%1,         couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                            Ya%Li%NULL%1,                            Mingli%Han%NULL%1,                            Zhenhua%Wang%NULL%1,                            Yuhang%Zhang%NULL%1,                            Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                            Yiran%Hu%NULL%1,                            Li%Dong%NULL%1,                            Qi%Shu%NULL%1,                            Mingyang%Zhu%NULL%1,                            Yuping%Li%NULL%1,                            Chengshui%Chen%NULL%1,                            Hongchang%Gao%gaohc27@wmu.edu.cn%1,                            Li%Yang%taiyang2630@163.com%0,                            Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                            Yingying%Hu%NULL%2,                            Yingying%Hu%NULL%0,                            Yuanyuan%Yu%NULL%1,                            Xiaodong%Zhang%NULL%1,                            Bin%Li%NULL%1,                            Jianguo%Wu%NULL%1,                            Junyu%Li%NULL%1,                            Yingping%Wu%NULL%1,                            Xiaoping%Xia%NULL%2,                            Xiaoping%Xia%NULL%0,                            Huina%Tang%NULL%1,                            Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                            Shui-Bao%Xu%NULL%0,                            Yi-Xiao%Lin%NULL%0,                            Di%Tian%NULL%0,                            Zhao-Qin%Zhu%NULL%0,                            Fa-Hui%Dai%NULL%0,                            Fan%Wu%NULL%0,                            Zhi-Gang%Song%NULL%0,                            Wei%Huang%NULL%0,                            Jun%Chen%NULL%0,                            Bi-Jie%Hu%NULL%0,                            Sheng%Wang%NULL%0,                            En-Qiang%Mao%NULL%0,                            Lei%Zhu%NULL%0,                            Wen-Hong%Zhang%NULL%0,                            Hong-Zhou%Lu%NULL%0,                            Peng%Lyu%NULL%0,                            Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                            Yi Xin%Tong%NULL%0,                            Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                            Wee Chian%Koh%NULL%2,                            Wee Chian%Koh%NULL%0,                            Riamiza Natalie%Momin%NULL%2,                            Riamiza Natalie%Momin%NULL%0,                            Mohammad Fathi%Alikhan%NULL%1,                            Noraskhin%Fadillah%NULL%1,                            Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                            Xinyi%Liu%NULL%1,                            Jianjun%Liu%NULL%1,                            Han%Liao%NULL%1,                            Sixuan%Long%NULL%1,                            Ning%Zhou%NULL%0,                            Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                            Zhenyu%Pan%NULL%0,                            Yunbao%Pan%NULL%0,                            Qiaoling%Deng%NULL%0,                            Liangjun%Chen%NULL%0,                            Jin%Li%NULL%0,                            Yirong%Li%NULL%0,                            Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                            Zongqiu%Chen%NULL%1,                            Chenghua%Gong%NULL%1,                            Hui%Liu%NULL%1,                            Baisheng%Li%NULL%1,                            Kuibiao%Li%NULL%1,                            Xi%Chen%NULL%4,                            Conghui%Xu%NULL%1,                            Qinlong%Jing%NULL%1,                            Guocong%Liu%NULL%1,                            Pengzhe%Qin%NULL%1,                            Yufei%Liu%NULL%1,                            Yi%Zhong%NULL%1,                            Lijuan%Huang%NULL%1,                            Bao-Ping%Zhu%NULL%1,                            Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                            Xiao-Bo%Wang%NULL%1,                            Xiang-Hong%Jin%NULL%1,                            Wen-Yue%Liu%NULL%1,                            Feng%Gao%NULL%1,                            Yong-Ping%Chen%NULL%1,                            Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%1,                             Xuejiao%Liao%NULL%1,                             Tongyang%Xiao%NULL%1,                             Shen%Qian%NULL%1,                             Jing%Yuan%NULL%1,                             Haocheng%Ye%NULL%1,                             Furong%Qi%NULL%1,                             Chengguang%Shen%NULL%1,                             Lifei%Wang%NULL%1,                             Yang%Liu%NULL%1,                             Xiaoya%Cheng%NULL%1,                             Na%Li%NULL%1,                             Qingxian%Cai%NULL%1,                             Fang%Wang%NULL%1,                             Jun%Chen%NULL%0,                             Guojun%Li%NULL%1,                             Qiu’e%Cai%NULL%1,                             Yingxia%Liu%NULL%1,                             Yunfang%Wang%NULL%1,                             Feng%Zhang%NULL%1,                             Yang%Fu%NULL%1,                             Qing%He%NULL%1,                             Xiaohua%Tan%NULL%1,                             Lei%Liu%NULL%0,                             Zheng%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%2,                             Xiaoping%Xu%NULL%1,                             Jing%Hu%NULL%1,                             Qiangda%Chen%NULL%1,                             Fengfeng%Xu%NULL%1,                             Hui%Liang%NULL%1,                             Nanmei%Liu%NULL%1,                             Hengmei%Zhu%NULL%1,                             Jinlong%Lan%NULL%1,                             Lan%Zhou%NULL%1,                             Jiajun%Xing%NULL%1,                             Ning%Pu%NULL%1,                             Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%1,                             Tim%Wood%NULL%1,                             Lauren%Jelley%NULL%1,                             Tineke%Jennings%NULL%1,                             Sarah%Jefferies%NULL%1,                             Karen%Daniells%NULL%1,                             Annette%Nesdale%NULL%1,                             Tony%Dowell%NULL%1,                             Nikki%Turner%NULL%1,                             Priscilla%Campbell-Stokes%NULL%1,                             Michelle%Balm%NULL%1,                             Hazel C%Dobinson%NULL%1,                             Cameron C.%Grant%NULL%1,                             Shelley%James%NULL%1,                             Nayyereh%Aminisani%NULL%1,                             Jacqui%Ralston%NULL%1,                             Wendy%Gunn%NULL%1,                             Judy%Bocacao%NULL%1,                             Jessica%Danielewicz%NULL%1,                             Tessa%Moncrieff%NULL%1,                             Andrea%McNeill%NULL%1,                             Liza%Lopez%NULL%1,                             Ben%Waite%NULL%1,                             Tomasz%Kiedrzynski%NULL%1,                             Hannah%Schrader%NULL%1,                             Rebekah%Gray%NULL%1,                             Kayla%Cook%NULL%1,                             Danielle%Currin%NULL%1,                             Chaune%Engelbrecht%NULL%1,                             Whitney%Tapurau%NULL%1,                             Leigh%Emmerton%NULL%1,                             Maxine%Martin%NULL%1,                             Michael G.%Baker%NULL%1,                             Susan%Taylor%NULL%1,                             Adrian%Trenholme%NULL%1,                             Conroy%Wong%NULL%1,                             Shirley%Lawrence%NULL%1,                             Colin%McArthur%NULL%1,                             Alicia%Stanley%NULL%1,                             Sally%Roberts%NULL%1,                             Fahimeh%Ranama%NULL%1,                             Jenny%Bennett%NULL%1,                             Chris%Mansell%NULL%1,                             Meik%Dilcher%NULL%1,                             Anja%Werno%NULL%1,                             Jennifer%Grant%NULL%1,                             Antje%van der Linden%NULL%1,                             Ben%Youngblood%NULL%1,                             Paul G.%Thomas%NULL%1,                             Richard J.%Webby%NULL%1,                              S.%Huang%null%1,                              T.% Wood%null%1,                              L.% Jelley%null%1,                              T.% Jennings%null%1,                              S.% Jeffries%null%1,                              K.% Daniels%null%1,                              A.% Nesdale%null%1,                              T.% Dowell%null%1,                              N.% Turner%null%1,                              P.% Campbell-Stokes%null%1,                              M.% Balm%null%1,                              H. C.% Dobinson%null%1,                              C. C.% Grant%null%1,                              S.% James%null%1,                              N.% Aminisani%null%1,                              J.% Ralston%null%1,                              W.% Gunn%null%1,                              J.% Bucacao%null%1,                              J.% Danielewicz%null%1,                              T.% Moncrieff%null%1,                              A.% McNeill%null%1,                              L.% Lopez%null%1,                              B.% Waite%null%1,                              T.% Kiedrzynski%null%1,                              H.% Schrader%null%1,                              R.% Gray%null%1,                              K.% Cook%null%1,                              D.% Currin%null%1,                              C.% Engelbrecht%null%1,                              W.% Tapurau%null%1,                              L.% Emmerton%null%1,                              M.% Martin%null%1,                              M. G.% Baker%null%1,                              S.% Taylor%null%1,                              A.% Trenholme%null%1,                              C.% Wong%null%1,                              S.% Lawrence%null%1,                              C.% McArthur%null%1,                              A.% Stanley%null%1,                              S.% Roberts%null%1,                              F.% Ranama%null%1,                              J.% Bennett%null%1,                              C.% Mansell%null%1,                              M.% Dilcher%null%1,                              A.% Werno%null%1,                              J.% Grant%null%1,                             couldn't find firstname% v %null%1,                            S.%Huang%null%1,                            T.% Wood%null%1,                            L.% Jelley%null%1,                            T.% Jennings%null%1,                            S.% Jeffries%null%1,                            K.% Daniels%null%1,                            A.% Nesdale%null%1,                            T.% Dowell%null%1,                            N.% Turner%null%1,                            P.% Campbell-Stokes%null%1,                            M.% Balm%null%1,                            H. C.% Dobinson%null%1,                            C. C.% Grant%null%1,                            S.% James%null%1,                            N.% Aminisani%null%1,                            J.% Ralston%null%1,                            W.% Gunn%null%1,                            J.% Bucacao%null%1,                            J.% Danielewicz%null%1,                            T.% Moncrieff%null%1,                            A.% McNeill%null%1,                            L.% Lopez%null%1,                            B.% Waite%null%1,                            T.% Kiedrzynski%null%1,                            H.% Schrader%null%1,                            R.% Gray%null%1,                            K.% Cook%null%1,                            D.% Currin%null%1,                            C.% Engelbrecht%null%1,                            W.% Tapurau%null%1,                            L.% Emmerton%null%1,                            M.% Martin%null%1,                            M. G.% Baker%null%1,                            S.% Taylor%null%1,                            A.% Trenholme%null%1,                            C.% Wong%null%1,                            S.% Lawrence%null%1,                            C.% McArthur%null%1,                            A.% Stanley%null%1,                            S.% Roberts%null%1,                            F.% Ranama%null%1,                            J.% Bennett%null%1,                            C.% Mansell%null%1,                            M.% Dilcher%null%1,                            A.% Werno%null%1,                            J.% Grant%null%1,                           couldn't find firstname% v %null%1,           S.%Huang%null%1,           T.% Wood%null%1,           L.% Jelley%null%1,           T.% Jennings%null%1,           S.% Jeffries%null%1,           K.% Daniels%null%1,           A.% Nesdale%null%1,           T.% Dowell%null%1,           N.% Turner%null%1,           P.% Campbell-Stokes%null%1,           M.% Balm%null%1,           H. C.% Dobinson%null%1,           C. C.% Grant%null%1,           S.% James%null%1,           N.% Aminisani%null%1,           J.% Ralston%null%1,           W.% Gunn%null%1,           J.% Bucacao%null%1,           J.% Danielewicz%null%1,           T.% Moncrieff%null%1,           A.% McNeill%null%1,           L.% Lopez%null%1,           B.% Waite%null%1,           T.% Kiedrzynski%null%1,           H.% Schrader%null%1,           R.% Gray%null%1,           K.% Cook%null%1,           D.% Currin%null%1,           C.% Engelbrecht%null%1,           W.% Tapurau%null%1,           L.% Emmerton%null%1,           M.% Martin%null%1,           M. G.% Baker%null%1,           S.% Taylor%null%1,           A.% Trenholme%null%1,           C.% Wong%null%1,           S.% Lawrence%null%1,           C.% McArthur%null%1,           A.% Stanley%null%1,           S.% Roberts%null%1,           F.% Ranama%null%1,           J.% Bennett%null%1,           C.% Mansell%null%1,           M.% Dilcher%null%1,           A.% Werno%null%1,           J.% Grant%null%1,          couldn't find firstname% v %null%1]</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%1,                             Ya%Li%NULL%1,                             Mingli%Han%NULL%1,                             Zhenhua%Wang%NULL%1,                             Yuhang%Zhang%NULL%1,                             Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%1,                             Yiran%Hu%NULL%1,                             Li%Dong%NULL%1,                             Qi%Shu%NULL%1,                             Mingyang%Zhu%NULL%1,                             Yuping%Li%NULL%1,                             Chengshui%Chen%NULL%1,                             Hongchang%Gao%gaohc27@wmu.edu.cn%1,                             Li%Yang%taiyang2630@163.com%0,                             Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%2,                             Yingying%Hu%NULL%2,                             Yingying%Hu%NULL%0,                             Yuanyuan%Yu%NULL%1,                             Xiaodong%Zhang%NULL%1,                             Bin%Li%NULL%1,                             Jianguo%Wu%NULL%1,                             Junyu%Li%NULL%1,                             Yingping%Wu%NULL%1,                             Xiaoping%Xia%NULL%2,                             Xiaoping%Xia%NULL%0,                             Huina%Tang%NULL%1,                             Jian%Xu%xuj@zju.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0,                             Shui-Bao%Xu%NULL%0,                             Yi-Xiao%Lin%NULL%0,                             Di%Tian%NULL%0,                             Zhao-Qin%Zhu%NULL%0,                             Fa-Hui%Dai%NULL%0,                             Fan%Wu%NULL%0,                             Zhi-Gang%Song%NULL%0,                             Wei%Huang%NULL%0,                             Jun%Chen%NULL%0,                             Bi-Jie%Hu%NULL%0,                             Sheng%Wang%NULL%0,                             En-Qiang%Mao%NULL%0,                             Lei%Zhu%NULL%0,                             Wen-Hong%Zhang%NULL%0,                             Hong-Zhou%Lu%NULL%0,                             Peng%Lyu%NULL%0,                             Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ai Tang%Xiao%NULL%0,                             Yi Xin%Tong%NULL%0,                             Sheng%Zhang%aloof3737@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%1,                             Wee Chian%Koh%NULL%2,                             Wee Chian%Koh%NULL%0,                             Riamiza Natalie%Momin%NULL%2,                             Riamiza Natalie%Momin%NULL%0,                             Mohammad Fathi%Alikhan%NULL%1,                             Noraskhin%Fadillah%NULL%1,                             Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%1,                             Xinyi%Liu%NULL%1,                             Jianjun%Liu%NULL%1,                             Han%Liao%NULL%1,                             Sixuan%Long%NULL%1,                             Ning%Zhou%NULL%0,                             Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0,                             Zhenyu%Pan%NULL%0,                             Yunbao%Pan%NULL%0,                             Qiaoling%Deng%NULL%0,                             Liangjun%Chen%NULL%0,                             Jin%Li%NULL%0,                             Yirong%Li%NULL%0,                             Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%1,                             Zongqiu%Chen%NULL%1,                             Chenghua%Gong%NULL%1,                             Hui%Liu%NULL%1,                             Baisheng%Li%NULL%1,                             Kuibiao%Li%NULL%1,                             Xi%Chen%NULL%4,                             Conghui%Xu%NULL%1,                             Qinlong%Jing%NULL%1,                             Guocong%Liu%NULL%1,                             Pengzhe%Qin%NULL%1,                             Yufei%Liu%NULL%1,                             Yi%Zhong%NULL%1,                             Lijuan%Huang%NULL%1,                             Bao-Ping%Zhu%NULL%1,                             Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0,                             Xiao-Bo%Wang%NULL%1,                             Xiang-Hong%Jin%NULL%1,                             Wen-Yue%Liu%NULL%1,                             Feng%Gao%NULL%1,                             Yong-Ping%Chen%NULL%1,                             Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianghong%An%NULL%0, Xuejiao%Liao%NULL%1, Tongyang%Xiao%NULL%1, Shen%Qian%NULL%1, Jing%Yuan%NULL%0, Haocheng%Ye%NULL%1, Furong%Qi%NULL%1, Chengguang%Shen%NULL%1, Lifei%Wang%NULL%0, Yang%Liu%NULL%0, Xiaoya%Cheng%NULL%1, Na%Li%NULL%0, Qingxian%Cai%NULL%1, Fang%Wang%NULL%1, Jun%Chen%NULL%0, Guojun%Li%NULL%1, Qiu’e%Cai%NULL%1, Yingxia%Liu%NULL%0, Yunfang%Wang%NULL%1, Feng%Zhang%NULL%1, Yang%Fu%NULL%1, Qing%He%NULL%1, Xiaohua%Tan%NULL%1, Lei%Liu%NULL%0, Zheng%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>AME Publishing Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) pandemic is caused by the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2).
+ The objective of this study was to determine the clinical course and risk factors for patients showing recurrent SARS-CoV-2 RNA positivity.
+ A total of 1087 COVID-19 patients confirmed by RT-PCR from February 24, 2020 to March 31, 2020 were retrospectively enrolled.
+ Advanced age was significantly associated with mortality.
+ In addition, 81 (7.6%) of the discharged patients tested positive for SARS-CoV-2 RNA during the isolation period.
+ For patients with recurrent RT-PCR positivity, the median duration from illness onset to recurrence was 50 days.
+ Multivariate regression analysis identified elevated serum IL-6, increased lymphocyte counts and CT imaging features of lung consolidation during hospitalization as the independent risk factors of recurrence.
+ We hypothesized that the balance between immune response and virus toxicity may be the underlying mechanism of this phenomenon.
+ For patients with a high risk of recurrence, a prolonged observation and additional preventative measures should be implemented for at least 50 days after illness onset to prevent future outbreaks.
+</t>
+  </si>
+  <si>
+    <t>[Jie%Chen%NULL%0, Xiaoping%Xu%NULL%1, Jing%Hu%NULL%1, Qiangda%Chen%NULL%1, Fengfeng%Xu%NULL%1, Hui%Liang%NULL%1, Nanmei%Liu%NULL%1, Hengmei%Zhu%NULL%1, Jinlong%Lan%NULL%1, Lan%Zhou%NULL%1, Jiajun%Xing%NULL%1, Ning%Pu%NULL%1, Zhigang%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>Impact Journals</t>
+  </si>
+  <si>
+    <t>Impact of the COVID-19 nonpharmaceutical interventions on influenza and other respiratory viral infections in New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="P8"&gt;Stringent nonpharmaceutical interventions (NPIs) such as lockdowns and border closures are not currently recommended for pandemic influenza control.
+ New Zealand used these NPIs to eliminate coronavirus disease 2019 during its first wave.
+ Using multiple surveillance systems, we observed a parallel and unprecedented reduction of influenza and other respiratory viral infections in 2020. This finding supports the use of these NPIs for controlling pandemic influenza and other severe respiratory viral threats.
+</t>
+  </si>
+  <si>
+    <t>[Q. Sue%Huang%NULL%0, Tim%Wood%NULL%1, Lauren%Jelley%NULL%1, Tineke%Jennings%NULL%1, Sarah%Jefferies%NULL%1, Karen%Daniells%NULL%1, Annette%Nesdale%NULL%1, Tony%Dowell%NULL%1, Nikki%Turner%NULL%1, Priscilla%Campbell-Stokes%NULL%1, Michelle%Balm%NULL%1, Hazel C%Dobinson%NULL%1, Cameron C.%Grant%NULL%1, Shelley%James%NULL%1, Nayyereh%Aminisani%NULL%1, Jacqui%Ralston%NULL%1, Wendy%Gunn%NULL%1, Judy%Bocacao%NULL%1, Jessica%Danielewicz%NULL%1, Tessa%Moncrieff%NULL%1, Andrea%McNeill%NULL%1, Liza%Lopez%NULL%1, Ben%Waite%NULL%1, Tomasz%Kiedrzynski%NULL%1, Hannah%Schrader%NULL%1, Rebekah%Gray%NULL%1, Kayla%Cook%NULL%1, Danielle%Currin%NULL%1, Chaune%Engelbrecht%NULL%1, Whitney%Tapurau%NULL%1, Leigh%Emmerton%NULL%1, Maxine%Martin%NULL%1, Michael G.%Baker%NULL%1, Susan%Taylor%NULL%1, Adrian%Trenholme%NULL%1, Conroy%Wong%NULL%1, Shirley%Lawrence%NULL%1, Colin%McArthur%NULL%1, Alicia%Stanley%NULL%1, Sally%Roberts%NULL%1, Fahimeh%Ranama%NULL%1, Jenny%Bennett%NULL%1, Chris%Mansell%NULL%1, Meik%Dilcher%NULL%1, Anja%Werno%NULL%1, Jennifer%Grant%NULL%1, Antje%van der Linden%NULL%1, Ben%Youngblood%NULL%1, Paul G.%Thomas%NULL%1, Richard J.%Webby%NULL%1]</t>
+  </si>
+  <si>
+    <t>PMC7668762</t>
+  </si>
+  <si>
+    <t>Cold Spring Harbor Laboratory</t>
+  </si>
+  <si>
+    <t>[Minlin%Jiang%NULL%0, Ya%Li%NULL%1, Mingli%Han%NULL%1, Zhenhua%Wang%NULL%1, Yuhang%Zhang%NULL%1, Xinwei%Du%NULL%1]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Hong%Zheng%NULL%0, Yiran%Hu%NULL%1, Li%Dong%NULL%0, Qi%Shu%NULL%1, Mingyang%Zhu%NULL%1, Yuping%Li%NULL%1, Chengshui%Chen%NULL%1, Hongchang%Gao%gaohc27@wmu.edu.cn%1, Li%Yang%taiyang2630@163.com%0, Li%Yang%taiyang2630@163.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Youjiang%Li%NULL%0, Yingying%Hu%NULL%0, Yingying%Hu%NULL%0, Yuanyuan%Yu%NULL%2, Xiaodong%Zhang%NULL%2, Bin%Li%NULL%2, Jianguo%Wu%NULL%2, Junyu%Li%NULL%2, Yingping%Wu%NULL%2, Xiaoping%Xia%NULL%4, Xiaoping%Xia%NULL%0, Huina%Tang%NULL%2, Jian%Xu%xuj@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0, Shui-Bao%Xu%NULL%0, Yi-Xiao%Lin%NULL%0, Di%Tian%NULL%0, Zhao-Qin%Zhu%NULL%0, Fa-Hui%Dai%NULL%0, Fan%Wu%NULL%0, Zhi-Gang%Song%NULL%0, Wei%Huang%NULL%0, Jun%Chen%NULL%0, Bi-Jie%Hu%NULL%0, Sheng%Wang%NULL%0, En-Qiang%Mao%NULL%0, Lei%Zhu%NULL%0, Wen-Hong%Zhang%NULL%0, Hong-Zhou%Lu%NULL%0, Peng%Lyu%NULL%0, Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case reports of patients with coronavirus disease‐2019 (COVID‐19) who have been discharged and subsequently report positive reverse transcription‐polymerase chain reaction again (hereafter referred as “re‐positive”) do not fully describe the magnitude and significance of this issue.
+ To determine the re‐positive rate (proportion) and review probable causes and outcomes, we conduct a retrospective study of all 119 discharged patients in Brunei Darussalam up till April 23. Patients who were discharged are required to self‐isolate at home for 14 days and undergo nasopharyngeal specimen collection postdischarge.
+ Discharged patients found to be re‐positive were readmitted.
+ We reviewed the clinical and epidemiological records of all discharged patients and apply log‐binomial models to obtain risk ratios for re‐positive status.
+ One in five recovered patients subsequently test positive again for severe acute respiratory syndrome coronavirus 2—this risk is more than six times higher in persons aged 60 years and above.
+ The average Ct value of re‐positive patients was lower predischarge compared with their readmission Ct value.
+ Out of 111 close contacts tested, none were found to be positive as a result of exposure to a re‐positive patient.
+ Our findings support prolonged but intermittent viral shedding as the probable cause for this phenomenon.
+ We did not observe infectivity potential in these patients.
+</t>
+  </si>
+  <si>
+    <t>[Justin%Wong%justin.wong@moh.gov.bn%0, Wee Chian%Koh%NULL%2, Wee Chian%Koh%NULL%0, Riamiza Natalie%Momin%NULL%2, Riamiza Natalie%Momin%NULL%0, Mohammad Fathi%Alikhan%NULL%1, Noraskhin%Fadillah%NULL%1, Lin%Naing%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinru%Wu%NULL%0, Xinyi%Liu%NULL%1, Jianjun%Liu%NULL%1, Han%Liao%NULL%1, Sixuan%Long%NULL%1, Ning%Zhou%NULL%0, Pa%Wu%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              All reactivated patients presented normal aminotransferase levels.
+</t>
+  </si>
+  <si>
+    <t>[Guangming%Ye%NULL%0, Zhenyu%Pan%NULL%0, Yunbao%Pan%NULL%0, Qiaoling%Deng%NULL%0, Liangjun%Chen%NULL%0, Jin%Li%NULL%0, Yirong%Li%NULL%0, Xinghuan%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Yuan%NULL%0, Zongqiu%Chen%NULL%1, Chenghua%Gong%NULL%1, Hui%Liu%NULL%0, Baisheng%Li%NULL%1, Kuibiao%Li%NULL%1, Xi%Chen%NULL%5, Conghui%Xu%NULL%1, Qinlong%Jing%NULL%1, Guocong%Liu%NULL%1, Pengzhe%Qin%NULL%1, Yufei%Liu%NULL%1, Yi%Zhong%NULL%1, Lijuan%Huang%NULL%1, Bao-Ping%Zhu%NULL%1, Zhicong%Yang%baopingzhu@yahoo.com%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Kenneth I.%Zheng%NULL%0, Xiao-Bo%Wang%NULL%0, Xiang-Hong%Jin%NULL%1, Wen-Yue%Liu%NULL%0, Feng%Gao%NULL%0, Yong-Ping%Chen%NULL%0, Ming-Hua%Zheng%zhengmh@wmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1984,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1813,10 +1996,10 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3">
@@ -1830,10 +2013,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="E3" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1845,10 +2028,10 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4">
@@ -1859,28 +2042,28 @@
         <v>44148.0</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>469</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>470</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>472</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
@@ -1897,7 +2080,7 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -1909,10 +2092,10 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
@@ -1929,7 +2112,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1941,10 +2124,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7">
@@ -1961,7 +2144,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1973,10 +2156,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -1993,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -2005,10 +2188,10 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
@@ -2025,7 +2208,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -2037,10 +2220,10 @@
         <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10">
@@ -2054,10 +2237,10 @@
         <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>481</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -2069,10 +2252,10 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11">
@@ -2089,7 +2272,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2101,10 +2284,10 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12">
@@ -2121,7 +2304,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2133,10 +2316,10 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13">
@@ -2150,10 +2333,10 @@
         <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2165,10 +2348,10 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14">
@@ -2185,7 +2368,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2197,10 +2380,10 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15">
@@ -2217,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="F15" t="s">
         <v>88</v>
@@ -2229,10 +2412,10 @@
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16">
